--- a/Lanzamiento del proyecto/Control Asignaciones.xlsx
+++ b/Lanzamiento del proyecto/Control Asignaciones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Desktop\METODOS FORMALES\METFOR\Primera Entrega\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielPena\Desktop\ProyectoRapicoop\Semana 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="66">
   <si>
     <t>Entrega de todos los documentos finales al líder de soporte</t>
   </si>
@@ -150,15 +150,9 @@
     <t>LC</t>
   </si>
   <si>
-    <t>Todo el equipo</t>
-  </si>
-  <si>
     <t>LS</t>
   </si>
   <si>
-    <t>LS-LD</t>
-  </si>
-  <si>
     <t>Tiempo Estimado (minutos)</t>
   </si>
   <si>
@@ -220,6 +214,9 @@
   </si>
   <si>
     <t>Duracion Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -229,7 +226,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="0" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -539,7 +536,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -549,9 +546,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -614,6 +608,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -669,9 +667,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -794,7 +789,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1114,1005 +1109,2477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="4" customWidth="1"/>
     <col min="3" max="6" width="10.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="23.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39"/>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="51" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="24" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7" spans="1:11" s="20" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="1:11" s="19" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="25">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11">
+        <v>43133</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="F8" s="11">
+        <v>43133</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="25">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11">
+        <v>43133</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="F9" s="11">
+        <v>43133</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" s="19" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="25">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11">
+        <v>43133</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="F10" s="11">
+        <v>43133</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="25">
+        <v>30</v>
+      </c>
+      <c r="D11" s="11">
+        <v>43133</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="F11" s="11">
+        <v>43133</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" s="19" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="25">
+        <v>30</v>
+      </c>
+      <c r="D12" s="11">
+        <v>43133</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="F12" s="11">
+        <v>43133</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="25">
+        <v>30</v>
+      </c>
+      <c r="D13" s="11">
+        <v>43133</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="F13" s="11">
+        <v>43133</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="25">
+        <v>60</v>
+      </c>
+      <c r="D14" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F14" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="25">
+        <v>25</v>
+      </c>
+      <c r="D15" s="11">
+        <v>43134</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F15" s="11">
+        <v>43134</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="25">
+        <v>60</v>
+      </c>
+      <c r="D16" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F16" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="25">
+        <v>40</v>
+      </c>
+      <c r="D17" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F17" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="25">
+        <v>30</v>
+      </c>
+      <c r="D18" s="11">
+        <v>43133</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="F18" s="11">
+        <v>43133</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="25">
+        <v>27</v>
+      </c>
+      <c r="D19" s="11">
+        <v>43133</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F19" s="11">
+        <v>43133</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="25">
+        <v>27</v>
+      </c>
+      <c r="D20" s="11">
+        <v>43133</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F20" s="11">
+        <v>43133</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="25">
+        <v>27</v>
+      </c>
+      <c r="D21" s="11">
+        <v>43133</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F21" s="11">
+        <v>43133</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="25">
+        <v>27</v>
+      </c>
+      <c r="D22" s="11">
+        <v>43133</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F22" s="11">
+        <v>43133</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="25">
+        <v>27</v>
+      </c>
+      <c r="D23" s="11">
+        <v>43133</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F23" s="11">
+        <v>43133</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="25">
+        <v>27</v>
+      </c>
+      <c r="D24" s="11">
+        <v>43133</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F24" s="11">
+        <v>43133</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="25">
+        <v>28</v>
+      </c>
+      <c r="D25" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="F25" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="25">
+        <v>28</v>
+      </c>
+      <c r="D26" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="F26" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="25">
+        <v>28</v>
+      </c>
+      <c r="D27" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="F27" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="25">
+        <v>28</v>
+      </c>
+      <c r="D28" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="25">
+        <v>28</v>
+      </c>
+      <c r="D29" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="F29" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="25">
+        <v>28</v>
+      </c>
+      <c r="D30" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="F30" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="25">
+        <v>30</v>
+      </c>
+      <c r="D31" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F31" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="25">
+        <v>30</v>
+      </c>
+      <c r="D32" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F32" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="25">
+        <v>30</v>
+      </c>
+      <c r="D33" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F33" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="25">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F34" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="25">
+        <v>30</v>
+      </c>
+      <c r="D35" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F35" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="25">
+        <v>30</v>
+      </c>
+      <c r="D36" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F36" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="25">
+        <v>31</v>
+      </c>
+      <c r="D37" s="11">
+        <v>43136</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="F37" s="18">
+        <v>43136</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:12" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="25">
+        <v>31</v>
+      </c>
+      <c r="D38" s="11">
+        <v>43136</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="F38" s="18">
+        <v>43136</v>
+      </c>
+      <c r="G38" s="17">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:12" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="25">
+        <v>31</v>
+      </c>
+      <c r="D39" s="11">
+        <v>43136</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="F39" s="18">
+        <v>43136</v>
+      </c>
+      <c r="G39" s="17">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="14"/>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="25">
+        <v>31</v>
+      </c>
+      <c r="D40" s="11">
+        <v>43136</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="F40" s="18">
+        <v>43136</v>
+      </c>
+      <c r="G40" s="17">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="25">
+        <v>31</v>
+      </c>
+      <c r="D41" s="11">
+        <v>43136</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="F41" s="18">
+        <v>43136</v>
+      </c>
+      <c r="G41" s="17">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="25">
+        <v>31</v>
+      </c>
+      <c r="D42" s="11">
+        <v>43136</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="F42" s="18">
+        <v>43136</v>
+      </c>
+      <c r="G42" s="17">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="25">
+        <v>23</v>
+      </c>
+      <c r="D43" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="F43" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0.79583333333333339</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="25">
+        <v>23</v>
+      </c>
+      <c r="D44" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="F44" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0.79583333333333339</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="25">
+        <v>23</v>
+      </c>
+      <c r="D45" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="F45" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0.79583333333333339</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="25">
+        <v>23</v>
+      </c>
+      <c r="D46" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="F46" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0.79583333333333339</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="25">
+        <v>23</v>
+      </c>
+      <c r="D47" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="F47" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0.79583333333333339</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="25">
+        <v>23</v>
+      </c>
+      <c r="D48" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="F48" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0.79583333333333339</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="25">
+        <v>22</v>
+      </c>
+      <c r="D49" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="F49" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="25">
+        <v>22</v>
+      </c>
+      <c r="D50" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="F50" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="25">
+        <v>22</v>
+      </c>
+      <c r="D51" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="F51" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="25">
+        <v>22</v>
+      </c>
+      <c r="D52" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="F52" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="25">
+        <v>22</v>
+      </c>
+      <c r="D53" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="F53" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="25">
+        <v>22</v>
+      </c>
+      <c r="D54" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="F54" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="25">
+        <v>20</v>
+      </c>
+      <c r="D55" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="F55" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" s="8"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="25">
+        <v>20</v>
+      </c>
+      <c r="D56" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F56" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0.82847222222222217</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="25">
+        <v>20</v>
+      </c>
+      <c r="D57" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F57" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="25">
+        <v>20</v>
+      </c>
+      <c r="D58" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F58" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" s="8"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="B59" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="25">
+        <v>20</v>
+      </c>
+      <c r="D59" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F59" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I59" s="8"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="25">
+        <v>20</v>
+      </c>
+      <c r="D60" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F60" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="25">
+        <v>34</v>
+      </c>
+      <c r="D61" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="F61" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I61" s="8"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="25">
+        <v>34</v>
+      </c>
+      <c r="D62" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="F62" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="25">
+        <v>34</v>
+      </c>
+      <c r="D63" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E63" s="10">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="F63" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="8"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="25">
+        <v>34</v>
+      </c>
+      <c r="D64" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E64" s="10">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="F64" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="25">
+        <v>34</v>
+      </c>
+      <c r="D65" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E65" s="10">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="F65" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A66" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="25">
+        <v>34</v>
+      </c>
+      <c r="D66" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="F66" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="25">
+        <v>15</v>
+      </c>
+      <c r="D67" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E67" s="10">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F67" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="25">
+        <v>10</v>
+      </c>
+      <c r="D68" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E68" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F68" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H68" s="9">
+        <v>0</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="25">
         <v>5</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="D69" s="11">
+        <v>43138</v>
+      </c>
+      <c r="E69" s="10">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F69" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G69" s="10">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="25">
+        <v>5</v>
+      </c>
+      <c r="D70" s="11">
+        <v>43138</v>
+      </c>
+      <c r="E70" s="10">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F70" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H70" s="9">
+        <v>0</v>
+      </c>
+      <c r="I70" s="8"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="25">
+        <v>30</v>
+      </c>
+      <c r="D71" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="F71" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="25">
+        <v>30</v>
+      </c>
+      <c r="D72" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E72" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="F72" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="25">
+        <v>30</v>
+      </c>
+      <c r="D73" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="F73" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I73" s="8"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="25">
+        <v>30</v>
+      </c>
+      <c r="D74" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="F74" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="25">
+        <v>30</v>
+      </c>
+      <c r="D75" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="F75" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G75" s="10">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="25">
+        <v>30</v>
+      </c>
+      <c r="D76" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="F76" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G76" s="10">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="25">
         <v>15</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="26">
+      <c r="D77" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="F77" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G77" s="10">
+        <v>0.9472222222222223</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I77" s="8"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="25">
+        <v>20</v>
+      </c>
+      <c r="D78" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E78" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="F78" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G78" s="10">
+        <v>0.87083333333333324</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="25">
         <v>30</v>
       </c>
-      <c r="D8" s="12">
-        <v>43133</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.6875</v>
-      </c>
-      <c r="F8" s="12">
-        <v>43133</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.6875</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="26">
+      <c r="D79" s="11">
+        <v>43137</v>
+      </c>
+      <c r="E79" s="10">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F79" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G79" s="10">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="8">
+        <f>SUM(C8:C79)</f>
+        <v>1965</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H82" s="5"/>
+      <c r="I82" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J82" s="8">
+        <f>SUM(J85:K90)</f>
+        <v>2167</v>
+      </c>
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="34"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="30"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="28">
+        <v>11</v>
+      </c>
+      <c r="C84" s="35">
+        <f>C13+C17+C24+C30+C36+C42+C48+C54+C55+C66+C17+C76</f>
+        <v>355</v>
+      </c>
+      <c r="D84" s="36"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="30"/>
+      <c r="H84" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J84" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K84" s="34"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="28">
+        <v>12</v>
+      </c>
+      <c r="C85" s="35">
+        <f>C13+C15+C24+C30+C36+C42+C54+C48+C56+C66+C76+C78</f>
+        <v>320</v>
+      </c>
+      <c r="D85" s="36"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="30"/>
+      <c r="H85" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I85" s="28">
+        <v>11</v>
+      </c>
+      <c r="J85" s="35">
+        <v>312</v>
+      </c>
+      <c r="K85" s="36"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F9" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.91319444444444453</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="26">
-        <v>25</v>
-      </c>
-      <c r="D10" s="12">
-        <v>43134</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F10" s="12">
-        <v>43134</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="26">
+      <c r="B86" s="28">
+        <v>13</v>
+      </c>
+      <c r="C86" s="35">
+        <f>C13+C24+C30+C36+C42+C48+C54+C60+C66+C70+C76+C77</f>
+        <v>295</v>
+      </c>
+      <c r="D86" s="36"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="30"/>
+      <c r="H86" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I86" s="28">
+        <v>12</v>
+      </c>
+      <c r="J86" s="35">
+        <v>320</v>
+      </c>
+      <c r="K86" s="36"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" s="28">
+        <v>12</v>
+      </c>
+      <c r="C87" s="35">
+        <f>C13+C14+C24+C30+C36+C42+C48+C54+C58+C66+C70+C76</f>
+        <v>340</v>
+      </c>
+      <c r="D87" s="36"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="30"/>
+      <c r="H87" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F11" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0.78472222222222221</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="26">
-        <v>40</v>
-      </c>
-      <c r="D12" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F12" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="26">
-        <v>27</v>
-      </c>
-      <c r="D13" s="12">
-        <v>43133</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="F13" s="12">
-        <v>43133</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="26">
-        <v>28</v>
-      </c>
-      <c r="D14" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="F14" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="26">
-        <v>30</v>
-      </c>
-      <c r="D15" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="F15" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0.72777777777777775</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="26">
-        <v>31</v>
-      </c>
-      <c r="D16" s="12">
-        <v>43136</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="F16" s="19">
-        <v>43136</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="26">
-        <v>23</v>
-      </c>
-      <c r="D17" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0.79861111111111116</v>
-      </c>
-      <c r="F17" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0.79583333333333339</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="26">
-        <v>22</v>
-      </c>
-      <c r="D18" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.8125</v>
-      </c>
-      <c r="F18" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0.80902777777777779</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="26">
-        <v>20</v>
-      </c>
-      <c r="D19" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0.84722222222222221</v>
-      </c>
-      <c r="F19" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0.84027777777777779</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="26">
-        <v>20</v>
-      </c>
-      <c r="D20" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F20" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0.82847222222222217</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="26">
-        <v>20</v>
-      </c>
-      <c r="D21" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F21" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0.83194444444444438</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="26">
-        <v>20</v>
-      </c>
-      <c r="D22" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F22" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0.82986111111111116</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="26">
-        <v>20</v>
-      </c>
-      <c r="D23" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F23" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="26">
-        <v>20</v>
-      </c>
-      <c r="D24" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F24" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0.82986111111111116</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="26">
-        <v>34</v>
-      </c>
-      <c r="D25" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0.85763888888888884</v>
-      </c>
-      <c r="F25" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="26">
-        <v>15</v>
-      </c>
-      <c r="D26" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="F26" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="26">
-        <v>10</v>
-      </c>
-      <c r="D27" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F27" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="26">
-        <v>5</v>
-      </c>
-      <c r="D28" s="12">
-        <v>43138</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="F28" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="H28" s="10">
-        <v>0</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="26">
-        <v>30</v>
-      </c>
-      <c r="D29" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.9375</v>
-      </c>
-      <c r="F29" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0.93958333333333333</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="26">
-        <v>15</v>
-      </c>
-      <c r="D30" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0.94791666666666663</v>
-      </c>
-      <c r="F30" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0.9472222222222223</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="26">
-        <v>20</v>
-      </c>
-      <c r="D31" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0.875</v>
-      </c>
-      <c r="F31" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0.87083333333333324</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="26">
-        <v>30</v>
-      </c>
-      <c r="D32" s="12">
-        <v>43137</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F32" s="12">
-        <v>43137</v>
-      </c>
-      <c r="G32" s="11">
-        <v>0.95138888888888884</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:11" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="9">
-        <f>SUM(C8:C32)</f>
-        <v>655</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="31"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="29">
+      <c r="I87" s="28">
+        <v>13</v>
+      </c>
+      <c r="J87" s="35">
+        <v>390</v>
+      </c>
+      <c r="K87" s="36"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" s="28">
+        <v>12</v>
+      </c>
+      <c r="C88" s="35">
+        <f>C13+C16+C24+C30+C36+C48+C42+C54+C57+C66+C67+C76</f>
+        <v>350</v>
+      </c>
+      <c r="D88" s="36"/>
+      <c r="E88" s="32"/>
+      <c r="H88" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I88" s="28">
+        <v>12</v>
+      </c>
+      <c r="J88" s="35">
+        <v>326</v>
+      </c>
+      <c r="K88" s="36"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="28">
         <v>11</v>
       </c>
-      <c r="C37" s="34">
-        <f>C8+C12+C13+C14+C15+C16+C17+C18+C19+C25+C12+C29</f>
-        <v>355</v>
-      </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="31"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="29">
+      <c r="C89" s="35">
+        <f>C79+C59+C54+C48+C42+C36+C30+C24+C66+C13+C76</f>
+        <v>305</v>
+      </c>
+      <c r="D89" s="36"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="30"/>
+      <c r="H89" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I89" s="28">
         <v>12</v>
       </c>
-      <c r="C38" s="34">
-        <f>C8+C10+C13+C14+C15+C16+C18+C17+C20+C25+C29+C31</f>
-        <v>320</v>
-      </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="31"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="29">
-        <v>13</v>
-      </c>
-      <c r="C39" s="34">
-        <f>C8+C13+C14+C15+C16+C17+C18+C24+C25+C28+C29+C30</f>
-        <v>295</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="31"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+      <c r="J89" s="35">
+        <v>474</v>
+      </c>
+      <c r="K89" s="36"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E90" s="30"/>
+      <c r="H90" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="29">
-        <v>12</v>
-      </c>
-      <c r="C40" s="34">
-        <f>C8+C9+C13+C14+C15+C16+C17+C18+C22+C25+C28+C29</f>
-        <v>340</v>
-      </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="31"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="29">
-        <v>12</v>
-      </c>
-      <c r="C41" s="34">
-        <f>C8+C11+C13+C14+C15+C17+C16+C18+C21+C25+C26+C29</f>
-        <v>350</v>
-      </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="33"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="29">
+      <c r="I90" s="28">
         <v>11</v>
       </c>
-      <c r="C42" s="34">
-        <f>C32+C23+C18+C17+C16+C15+C14+C13+C25+C8+C29</f>
-        <v>305</v>
-      </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="31"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E43" s="31"/>
+      <c r="J90" s="35">
+        <v>345</v>
+      </c>
+      <c r="K90" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A6:K6"/>
+  <mergeCells count="21">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:I2"/>
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
